--- a/data/tehilim-data/52.xlsx
+++ b/data/tehilim-data/52.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="161">
   <si>
     <t>original</t>
   </si>
@@ -22,19 +22,19 @@
     <t>א</t>
   </si>
   <si>
-    <t>לַמְנַצֵּ֥חַ</t>
-  </si>
-  <si>
-    <t>Начальнику</t>
-  </si>
-  <si>
-    <t>מַשְׂכִּ֥יל</t>
-  </si>
-  <si>
-    <t>маскила</t>
-  </si>
-  <si>
-    <t>לְדָוִ֑ד</t>
+    <t>למנצח</t>
+  </si>
+  <si>
+    <t>руководителю</t>
+  </si>
+  <si>
+    <t>משכיל</t>
+  </si>
+  <si>
+    <t>разумения</t>
+  </si>
+  <si>
+    <t>לדוד</t>
   </si>
   <si>
     <t>Давида</t>
@@ -43,358 +43,319 @@
     <t>ב</t>
   </si>
   <si>
-    <t>בְּב֘וֹא</t>
-  </si>
-  <si>
-    <t>Kогда</t>
-  </si>
-  <si>
-    <t>דֹואֵ֤ג</t>
-  </si>
-  <si>
-    <t>Дойк</t>
-  </si>
-  <si>
-    <t>הָֽאֲדֹמִי֙</t>
-  </si>
-  <si>
-    <t>едомитянин</t>
-  </si>
-  <si>
-    <t>וַיַּגֵּ֣ד</t>
-  </si>
-  <si>
-    <t>и донес</t>
-  </si>
-  <si>
-    <t>לְשָׁא֔וּל</t>
-  </si>
-  <si>
-    <t>Саулу</t>
-  </si>
-  <si>
-    <t>וַיֹּ֣אמֶר</t>
+    <t>בבוא</t>
+  </si>
+  <si>
+    <t>по приходе</t>
+  </si>
+  <si>
+    <t>דואג</t>
+  </si>
+  <si>
+    <t>Дога</t>
+  </si>
+  <si>
+    <t>האדמי</t>
+  </si>
+  <si>
+    <t>едомитянина</t>
+  </si>
+  <si>
+    <t>ויאמר</t>
+  </si>
+  <si>
+    <t>и говорил</t>
+  </si>
+  <si>
+    <t>לשאול</t>
+  </si>
+  <si>
+    <t>Шаулю</t>
   </si>
   <si>
     <t>и сказал</t>
   </si>
   <si>
-    <t>לֻחְמִ֑י</t>
-  </si>
-  <si>
-    <t>Лахми</t>
-  </si>
-  <si>
-    <t>יְשׁוּעָתֶֽךָ</t>
-  </si>
-  <si>
-    <t>спасение Твое</t>
+    <t>לו</t>
+  </si>
+  <si>
+    <t>ему</t>
   </si>
   <si>
     <t>ג</t>
   </si>
   <si>
-    <t>מַה־</t>
-  </si>
-  <si>
-    <t>Что</t>
-  </si>
-  <si>
-    <t>תִּתְהַלֵּ֬ל</t>
-  </si>
-  <si>
-    <t>хвалишься</t>
-  </si>
-  <si>
-    <t>בְּרָעָ֗ה</t>
-  </si>
-  <si>
-    <t>злом</t>
-  </si>
-  <si>
-    <t>הַגִּבּ֥וֹר</t>
-  </si>
-  <si>
-    <t>сильный</t>
-  </si>
-  <si>
-    <t>חֶ֫סֶד</t>
-  </si>
-  <si>
-    <t>милость</t>
-  </si>
-  <si>
-    <t>אֵ֥ל</t>
+    <t>מה</t>
+  </si>
+  <si>
+    <t>что</t>
+  </si>
+  <si>
+    <t>תתהולל</t>
+  </si>
+  <si>
+    <t>похваляешься</t>
+  </si>
+  <si>
+    <t>ברעה</t>
+  </si>
+  <si>
+    <t>злодейством</t>
+  </si>
+  <si>
+    <t>הגבור</t>
+  </si>
+  <si>
+    <t>могучий воин</t>
+  </si>
+  <si>
+    <t>חסד</t>
+  </si>
+  <si>
+    <t>милосердие</t>
+  </si>
+  <si>
+    <t>אל</t>
   </si>
   <si>
     <t>Бога</t>
   </si>
   <si>
-    <t>כָּל־</t>
-  </si>
-  <si>
-    <t>всякий</t>
-  </si>
-  <si>
-    <t>הַיּֽוֹם</t>
-  </si>
-  <si>
-    <t>день</t>
+    <t>כל</t>
+  </si>
+  <si>
+    <t>целыми (всеми)</t>
+  </si>
+  <si>
+    <t>היום</t>
+  </si>
+  <si>
+    <t>днями</t>
   </si>
   <si>
     <t>ד</t>
   </si>
   <si>
-    <t>הַוּ֗וֹת</t>
-  </si>
-  <si>
-    <t>пагубное</t>
-  </si>
-  <si>
-    <t>תַּחְשֹׁ֣ב</t>
+    <t>הוות</t>
+  </si>
+  <si>
+    <t>козни</t>
+  </si>
+  <si>
+    <t>תחשב</t>
   </si>
   <si>
     <t>замышляешь</t>
   </si>
   <si>
-    <t>לְשׁוֹנֶ֣ךָ</t>
+    <t>לשונך</t>
   </si>
   <si>
     <t>язык твой</t>
   </si>
   <si>
-    <t>כְּתַ֣עַר</t>
+    <t>כתער</t>
   </si>
   <si>
     <t>как бритва</t>
   </si>
   <si>
-    <t>מְלֻטָּ֑שׁ</t>
-  </si>
-  <si>
-    <t>острый</t>
-  </si>
-  <si>
-    <t>עֹ֝֗שָׂה</t>
-  </si>
-  <si>
-    <t>делающий</t>
-  </si>
-  <si>
-    <t>רְמִיָּֽה</t>
-  </si>
-  <si>
-    <t>коварство</t>
+    <t>מלוטש</t>
+  </si>
+  <si>
+    <t>оточенная</t>
+  </si>
+  <si>
+    <t>עשה</t>
+  </si>
+  <si>
+    <t>делающая</t>
+  </si>
+  <si>
+    <t>רמיה</t>
+  </si>
+  <si>
+    <t>небрежность</t>
   </si>
   <si>
     <t>ה</t>
   </si>
   <si>
-    <t>אָהַ֣בְתָּ</t>
-  </si>
-  <si>
-    <t>любишь</t>
-  </si>
-  <si>
-    <t>רַע</t>
+    <t>אהבת</t>
+  </si>
+  <si>
+    <t>полюбил</t>
+  </si>
+  <si>
+    <t>רע</t>
   </si>
   <si>
     <t>зло</t>
   </si>
   <si>
-    <t>מִטּ֑וֹב</t>
-  </si>
-  <si>
-    <t>больше</t>
-  </si>
-  <si>
-    <t>שֶׁ֝֗קֶר</t>
-  </si>
-  <si>
-    <t>добра</t>
-  </si>
-  <si>
-    <t>מִדַּבֵּ֥ר</t>
+    <t>מטוב</t>
+  </si>
+  <si>
+    <t>чем добро</t>
+  </si>
+  <si>
+    <t>שקר</t>
   </si>
   <si>
     <t>ложь</t>
   </si>
   <si>
-    <t>צֶֽדֶק</t>
-  </si>
-  <si>
-    <t>סֶֽלָה</t>
-  </si>
-  <si>
-    <t>чем говорить</t>
+    <t>מדבר</t>
+  </si>
+  <si>
+    <t>чем речи</t>
+  </si>
+  <si>
+    <t>צדק</t>
+  </si>
+  <si>
+    <t>справедливости</t>
+  </si>
+  <si>
+    <t>סלה</t>
+  </si>
+  <si>
+    <t>Сала</t>
   </si>
   <si>
     <t>ו</t>
   </si>
   <si>
-    <t>אָהַ֥בְתָּ</t>
-  </si>
-  <si>
-    <t>כָל־</t>
-  </si>
-  <si>
-    <t>всякие</t>
-  </si>
-  <si>
-    <t>דִּבְרֵי־</t>
-  </si>
-  <si>
-    <t>слова</t>
-  </si>
-  <si>
-    <t>בָלַ֑ע</t>
-  </si>
-  <si>
-    <t>поглощающие</t>
-  </si>
-  <si>
-    <t>לְשׁ֥וֹן</t>
+    <t>все</t>
+  </si>
+  <si>
+    <t>דברי</t>
+  </si>
+  <si>
+    <t>невнятные</t>
+  </si>
+  <si>
+    <t>לשון</t>
   </si>
   <si>
     <t>язык</t>
   </si>
   <si>
-    <t>מִרְמָֽה</t>
-  </si>
-  <si>
-    <t>коварный</t>
+    <t>מרמה</t>
+  </si>
+  <si>
+    <t>обмана</t>
   </si>
   <si>
     <t>ז</t>
   </si>
   <si>
-    <t>גַּם־</t>
+    <t>גם</t>
   </si>
   <si>
     <t>также</t>
   </si>
   <si>
-    <t>אֵ֣ל</t>
-  </si>
-  <si>
     <t>Бог</t>
   </si>
   <si>
-    <t>יִתָּ֣צְךָ</t>
-  </si>
-  <si>
-    <t>погубит тебя</t>
-  </si>
-  <si>
-    <t>לָנֶ֑צַח</t>
-  </si>
-  <si>
-    <t>навеки</t>
-  </si>
-  <si>
-    <t>יַחְתְּךָ֥</t>
-  </si>
-  <si>
-    <t>схватит тебя</t>
-  </si>
-  <si>
-    <t>וְיִסָּחֲךָ֗</t>
-  </si>
-  <si>
-    <t>и исторгнет тебя</t>
-  </si>
-  <si>
-    <t>מֵאֹ֥הֶל</t>
+    <t>יתצך</t>
+  </si>
+  <si>
+    <t>разобьет тебя</t>
+  </si>
+  <si>
+    <t>לנצח</t>
+  </si>
+  <si>
+    <t>навечно</t>
+  </si>
+  <si>
+    <t>יחתך</t>
+  </si>
+  <si>
+    <t>и выкорчует тебя</t>
+  </si>
+  <si>
+    <t>ויסחך</t>
+  </si>
+  <si>
+    <t>и вырвет тебя</t>
+  </si>
+  <si>
+    <t>מאהל</t>
   </si>
   <si>
     <t>из шатра</t>
   </si>
   <si>
-    <t>וְשֵׁ֥רֶשְׁךָֽ</t>
-  </si>
-  <si>
-    <t>и искоренит тебя</t>
-  </si>
-  <si>
-    <t>מֵאֶ֥רֶץ</t>
-  </si>
-  <si>
     <t>из земли</t>
   </si>
   <si>
-    <t>חַיִּֽים</t>
-  </si>
-  <si>
-    <t>живых</t>
+    <t>חיים</t>
+  </si>
+  <si>
+    <t>жизни</t>
   </si>
   <si>
     <t>ח</t>
   </si>
   <si>
-    <t>וְיִרְא֣וּ</t>
+    <t>ויראו</t>
   </si>
   <si>
     <t>и увидят</t>
   </si>
   <si>
-    <t>צַדִּיקִ֣ים</t>
+    <t>צדיקים</t>
   </si>
   <si>
     <t>праведники</t>
   </si>
   <si>
-    <t>וְיִֽירָ֑אוּ</t>
-  </si>
-  <si>
-    <t>и убоятся</t>
-  </si>
-  <si>
-    <t>וְעָלָ֖יו</t>
-  </si>
-  <si>
-    <t>и над ним</t>
-  </si>
-  <si>
-    <t>יִשְׂחָ֣קוּ</t>
-  </si>
-  <si>
-    <t>посмеются</t>
+    <t>и воспепещут</t>
+  </si>
+  <si>
+    <t>עליו</t>
+  </si>
+  <si>
+    <t>над ним</t>
   </si>
   <si>
     <t>ט</t>
   </si>
   <si>
-    <t>הִנֵּֽה־</t>
+    <t>הנה</t>
   </si>
   <si>
     <t>вот</t>
   </si>
   <si>
-    <t>הַגֶּֽבֶר</t>
-  </si>
-  <si>
-    <t>человек</t>
-  </si>
-  <si>
-    <t>לֹא־</t>
+    <t>הגבר</t>
+  </si>
+  <si>
+    <t>муж</t>
+  </si>
+  <si>
+    <t>לא</t>
   </si>
   <si>
     <t>не</t>
   </si>
   <si>
-    <t>יָשִׂ֣ים</t>
-  </si>
-  <si>
-    <t>делавший</t>
-  </si>
-  <si>
-    <t>אֱ֭לֹהִים</t>
-  </si>
-  <si>
-    <t>מָֽעֻזּ֑וֹ</t>
-  </si>
-  <si>
-    <t>защитой своей</t>
+    <t>ישים</t>
+  </si>
+  <si>
+    <t>положил</t>
+  </si>
+  <si>
+    <t>אלהים</t>
+  </si>
+  <si>
+    <t>מעוזו</t>
+  </si>
+  <si>
+    <t>крепость свою</t>
   </si>
   <si>
     <t>וַיִּבְטַ֥ח</t>
@@ -430,125 +391,116 @@
     <t>י</t>
   </si>
   <si>
-    <t>וַאֲנִ֤י</t>
+    <t>ואני</t>
   </si>
   <si>
     <t>а я</t>
   </si>
   <si>
-    <t>כְזַ֣יִת</t>
-  </si>
-  <si>
-    <t>как маслина</t>
-  </si>
-  <si>
-    <t>רַעֲנָ֣ן</t>
-  </si>
-  <si>
-    <t>зеленеющая</t>
-  </si>
-  <si>
-    <t>בְּבֵ֣ית</t>
+    <t>כזית</t>
+  </si>
+  <si>
+    <t>подобен оливе</t>
+  </si>
+  <si>
+    <t>רענן</t>
+  </si>
+  <si>
+    <t>свежей</t>
+  </si>
+  <si>
+    <t>בבית</t>
   </si>
   <si>
     <t>в доме</t>
   </si>
   <si>
-    <t>בָּטַחְתִּי</t>
-  </si>
-  <si>
-    <t>уповаю</t>
-  </si>
-  <si>
-    <t>בְחֶ֥סֶד</t>
-  </si>
-  <si>
-    <t>на милость</t>
-  </si>
-  <si>
-    <t>אֱלֹהִ֗ים</t>
-  </si>
-  <si>
-    <t>עוֹלָ֥ם</t>
-  </si>
-  <si>
-    <t>во веки</t>
-  </si>
-  <si>
-    <t>וָעֶֽד</t>
-  </si>
-  <si>
-    <t>и веки</t>
+    <t>בטחתי</t>
+  </si>
+  <si>
+    <t>уповал</t>
+  </si>
+  <si>
+    <t>בחסד</t>
+  </si>
+  <si>
+    <t>на милосердие</t>
+  </si>
+  <si>
+    <t>עולם</t>
+  </si>
+  <si>
+    <t>и довременности</t>
+  </si>
+  <si>
+    <t>ועד</t>
+  </si>
+  <si>
+    <t>и до скончания</t>
   </si>
   <si>
     <t>יא</t>
   </si>
   <si>
-    <t>אוֹדְךָ֨</t>
-  </si>
-  <si>
-    <t>буду славить Тебя</t>
-  </si>
-  <si>
-    <t>לְעוֹלָ֪ם</t>
-  </si>
-  <si>
-    <t>вечно</t>
-  </si>
-  <si>
-    <t>כִּֽי־</t>
-  </si>
-  <si>
-    <t>за то, что</t>
-  </si>
-  <si>
-    <t>עָשִׂ֡יתָ</t>
-  </si>
-  <si>
-    <t>Ты сделал</t>
-  </si>
-  <si>
-    <t>וַאֲקַוֶּ֬ה</t>
-  </si>
-  <si>
-    <t>и уповаю</t>
-  </si>
-  <si>
-    <t>שִׁמְךָ֨</t>
-  </si>
-  <si>
-    <t>на имя Твое</t>
-  </si>
-  <si>
-    <t>כִּי־</t>
-  </si>
-  <si>
-    <t>ибо оно</t>
-  </si>
-  <si>
-    <t>ט֖וֹב</t>
+    <t>אודך</t>
+  </si>
+  <si>
+    <t>благодарить буду тебя</t>
+  </si>
+  <si>
+    <t>לעולם</t>
+  </si>
+  <si>
+    <t>вовек</t>
+  </si>
+  <si>
+    <t>כי</t>
+  </si>
+  <si>
+    <t>ибо</t>
+  </si>
+  <si>
+    <t>עשית</t>
+  </si>
+  <si>
+    <t>ты соделал</t>
+  </si>
+  <si>
+    <t>ואקוה</t>
+  </si>
+  <si>
+    <t>и надеяться буду</t>
+  </si>
+  <si>
+    <t>שמך</t>
+  </si>
+  <si>
+    <t>имя твое</t>
+  </si>
+  <si>
+    <t>טוב</t>
   </si>
   <si>
     <t>благо</t>
   </si>
   <si>
-    <t>נֶ֣גֶד</t>
-  </si>
-  <si>
-    <t>перед</t>
-  </si>
-  <si>
-    <t>חֲסִידֶֽיךָ</t>
-  </si>
-  <si>
-    <t>святыми Твоими</t>
+    <t>נגד</t>
+  </si>
+  <si>
+    <t>напротив</t>
+  </si>
+  <si>
+    <t>חסידיך</t>
+  </si>
+  <si>
+    <t>добродетельных твоих</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -556,11 +508,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -589,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -600,6 +559,21 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -607,13 +581,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -933,1750 +909,1723 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3.0</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="6">
-        <v>4.0</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="6">
-        <v>5.0</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>71</v>
+      <c r="B39" s="6">
+        <v>6.0</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="6">
-        <v>6.0</v>
+      <c r="A40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>81</v>
+      <c r="B45" s="6">
+        <v>7.0</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="6">
-        <v>7.0</v>
+      <c r="A47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="B56" s="7">
+        <v>8.0</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="6">
-        <v>8.0</v>
+      <c r="A58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="B61" s="7">
+        <v>9.0</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="6">
-        <v>9.0</v>
+      <c r="A64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B71" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="4" t="s">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B72" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="4" t="s">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>133</v>
+      <c r="B73" s="6">
+        <v>10.0</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="6">
-        <v>10.0</v>
+      <c r="A76" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C79" s="11"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C80" s="11"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C81" s="11"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C82" s="11"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C83" s="11"/>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>38</v>
+      <c r="A84" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="6">
+        <v>11.0</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C85" s="11"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C86" s="11"/>
     </row>
     <row r="87">
-      <c r="A87" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="C87" s="2"/>
+      <c r="A87" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="11"/>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C88" s="11"/>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C89" s="11"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C90" s="11"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="C91" s="11"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="C92" s="11"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="C93" s="11"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="C94" s="11"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C95" s="2"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" s="2"/>
+      <c r="A96" s="14"/>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C97" s="2"/>
+      <c r="A97" s="14"/>
     </row>
     <row r="98">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="14"/>
     </row>
     <row r="99">
-      <c r="A99" s="9"/>
+      <c r="A99" s="14"/>
     </row>
     <row r="100">
-      <c r="A100" s="9"/>
+      <c r="A100" s="14"/>
     </row>
     <row r="101">
-      <c r="A101" s="9"/>
+      <c r="A101" s="14"/>
     </row>
     <row r="102">
-      <c r="A102" s="9"/>
+      <c r="A102" s="14"/>
     </row>
     <row r="103">
-      <c r="A103" s="9"/>
+      <c r="A103" s="14"/>
     </row>
     <row r="104">
-      <c r="A104" s="9"/>
+      <c r="A104" s="14"/>
     </row>
     <row r="105">
-      <c r="A105" s="9"/>
+      <c r="A105" s="14"/>
     </row>
     <row r="106">
-      <c r="A106" s="9"/>
+      <c r="A106" s="14"/>
     </row>
     <row r="107">
-      <c r="A107" s="9"/>
+      <c r="A107" s="14"/>
     </row>
     <row r="108">
-      <c r="A108" s="9"/>
+      <c r="A108" s="14"/>
     </row>
     <row r="109">
-      <c r="A109" s="9"/>
+      <c r="A109" s="14"/>
     </row>
     <row r="110">
-      <c r="A110" s="9"/>
+      <c r="A110" s="14"/>
     </row>
     <row r="111">
-      <c r="A111" s="9"/>
+      <c r="A111" s="14"/>
     </row>
     <row r="112">
-      <c r="A112" s="9"/>
+      <c r="A112" s="14"/>
     </row>
     <row r="113">
-      <c r="A113" s="9"/>
+      <c r="A113" s="14"/>
     </row>
     <row r="114">
-      <c r="A114" s="9"/>
+      <c r="A114" s="14"/>
     </row>
     <row r="115">
-      <c r="A115" s="9"/>
+      <c r="A115" s="14"/>
     </row>
     <row r="116">
-      <c r="A116" s="9"/>
+      <c r="A116" s="14"/>
     </row>
     <row r="117">
-      <c r="A117" s="9"/>
+      <c r="A117" s="14"/>
     </row>
     <row r="118">
-      <c r="A118" s="9"/>
+      <c r="A118" s="14"/>
     </row>
     <row r="119">
-      <c r="A119" s="9"/>
+      <c r="A119" s="14"/>
     </row>
     <row r="120">
-      <c r="A120" s="9"/>
+      <c r="A120" s="14"/>
     </row>
     <row r="121">
-      <c r="A121" s="9"/>
+      <c r="A121" s="14"/>
     </row>
     <row r="122">
-      <c r="A122" s="9"/>
+      <c r="A122" s="14"/>
     </row>
     <row r="123">
-      <c r="A123" s="9"/>
+      <c r="A123" s="14"/>
     </row>
     <row r="124">
-      <c r="A124" s="9"/>
+      <c r="A124" s="14"/>
     </row>
     <row r="125">
-      <c r="A125" s="9"/>
+      <c r="A125" s="14"/>
     </row>
     <row r="126">
-      <c r="A126" s="9"/>
+      <c r="A126" s="14"/>
     </row>
     <row r="127">
-      <c r="A127" s="9"/>
+      <c r="A127" s="14"/>
     </row>
     <row r="128">
-      <c r="A128" s="9"/>
+      <c r="A128" s="14"/>
     </row>
     <row r="129">
-      <c r="A129" s="9"/>
+      <c r="A129" s="14"/>
     </row>
     <row r="130">
-      <c r="A130" s="9"/>
+      <c r="A130" s="14"/>
     </row>
     <row r="131">
-      <c r="A131" s="9"/>
+      <c r="A131" s="14"/>
     </row>
     <row r="132">
-      <c r="A132" s="9"/>
+      <c r="A132" s="14"/>
     </row>
     <row r="133">
-      <c r="A133" s="9"/>
+      <c r="A133" s="14"/>
     </row>
     <row r="134">
-      <c r="A134" s="9"/>
+      <c r="A134" s="14"/>
     </row>
     <row r="135">
-      <c r="A135" s="9"/>
+      <c r="A135" s="14"/>
     </row>
     <row r="136">
-      <c r="A136" s="9"/>
+      <c r="A136" s="14"/>
     </row>
     <row r="137">
-      <c r="A137" s="9"/>
+      <c r="A137" s="14"/>
     </row>
     <row r="138">
-      <c r="A138" s="9"/>
+      <c r="A138" s="14"/>
     </row>
     <row r="139">
-      <c r="A139" s="9"/>
+      <c r="A139" s="14"/>
     </row>
     <row r="140">
-      <c r="A140" s="9"/>
+      <c r="A140" s="14"/>
     </row>
     <row r="141">
-      <c r="A141" s="9"/>
+      <c r="A141" s="14"/>
     </row>
     <row r="142">
-      <c r="A142" s="9"/>
+      <c r="A142" s="14"/>
     </row>
     <row r="143">
-      <c r="A143" s="9"/>
+      <c r="A143" s="14"/>
     </row>
     <row r="144">
-      <c r="A144" s="9"/>
+      <c r="A144" s="14"/>
     </row>
     <row r="145">
-      <c r="A145" s="9"/>
+      <c r="A145" s="14"/>
     </row>
     <row r="146">
-      <c r="A146" s="9"/>
+      <c r="A146" s="14"/>
     </row>
     <row r="147">
-      <c r="A147" s="9"/>
+      <c r="A147" s="14"/>
     </row>
     <row r="148">
-      <c r="A148" s="9"/>
+      <c r="A148" s="14"/>
     </row>
     <row r="149">
-      <c r="A149" s="9"/>
+      <c r="A149" s="14"/>
     </row>
     <row r="150">
-      <c r="A150" s="9"/>
+      <c r="A150" s="14"/>
     </row>
     <row r="151">
-      <c r="A151" s="9"/>
+      <c r="A151" s="14"/>
     </row>
     <row r="152">
-      <c r="A152" s="9"/>
+      <c r="A152" s="14"/>
     </row>
     <row r="153">
-      <c r="A153" s="9"/>
+      <c r="A153" s="14"/>
     </row>
     <row r="154">
-      <c r="A154" s="9"/>
+      <c r="A154" s="14"/>
     </row>
     <row r="155">
-      <c r="A155" s="9"/>
+      <c r="A155" s="14"/>
     </row>
     <row r="156">
-      <c r="A156" s="9"/>
+      <c r="A156" s="14"/>
     </row>
     <row r="157">
-      <c r="A157" s="9"/>
+      <c r="A157" s="14"/>
     </row>
     <row r="158">
-      <c r="A158" s="9"/>
+      <c r="A158" s="14"/>
     </row>
     <row r="159">
-      <c r="A159" s="9"/>
+      <c r="A159" s="14"/>
     </row>
     <row r="160">
-      <c r="A160" s="9"/>
+      <c r="A160" s="14"/>
     </row>
     <row r="161">
-      <c r="A161" s="9"/>
+      <c r="A161" s="14"/>
     </row>
     <row r="162">
-      <c r="A162" s="9"/>
+      <c r="A162" s="14"/>
     </row>
     <row r="163">
-      <c r="A163" s="9"/>
+      <c r="A163" s="14"/>
     </row>
     <row r="164">
-      <c r="A164" s="9"/>
+      <c r="A164" s="14"/>
     </row>
     <row r="165">
-      <c r="A165" s="9"/>
+      <c r="A165" s="14"/>
     </row>
     <row r="166">
-      <c r="A166" s="9"/>
+      <c r="A166" s="14"/>
     </row>
     <row r="167">
-      <c r="A167" s="9"/>
+      <c r="A167" s="14"/>
     </row>
     <row r="168">
-      <c r="A168" s="9"/>
+      <c r="A168" s="14"/>
     </row>
     <row r="169">
-      <c r="A169" s="9"/>
+      <c r="A169" s="14"/>
     </row>
     <row r="170">
-      <c r="A170" s="9"/>
+      <c r="A170" s="14"/>
     </row>
     <row r="171">
-      <c r="A171" s="9"/>
+      <c r="A171" s="14"/>
     </row>
     <row r="172">
-      <c r="A172" s="9"/>
+      <c r="A172" s="14"/>
     </row>
     <row r="173">
-      <c r="A173" s="9"/>
+      <c r="A173" s="14"/>
     </row>
     <row r="174">
-      <c r="A174" s="9"/>
+      <c r="A174" s="14"/>
     </row>
     <row r="175">
-      <c r="A175" s="9"/>
+      <c r="A175" s="14"/>
     </row>
     <row r="176">
-      <c r="A176" s="9"/>
+      <c r="A176" s="14"/>
     </row>
     <row r="177">
-      <c r="A177" s="9"/>
+      <c r="A177" s="14"/>
     </row>
     <row r="178">
-      <c r="A178" s="9"/>
+      <c r="A178" s="14"/>
     </row>
     <row r="179">
-      <c r="A179" s="9"/>
+      <c r="A179" s="14"/>
     </row>
     <row r="180">
-      <c r="A180" s="9"/>
+      <c r="A180" s="14"/>
     </row>
     <row r="181">
-      <c r="A181" s="9"/>
+      <c r="A181" s="14"/>
     </row>
     <row r="182">
-      <c r="A182" s="9"/>
+      <c r="A182" s="14"/>
     </row>
     <row r="183">
-      <c r="A183" s="9"/>
+      <c r="A183" s="14"/>
     </row>
     <row r="184">
-      <c r="A184" s="9"/>
+      <c r="A184" s="14"/>
     </row>
     <row r="185">
-      <c r="A185" s="9"/>
+      <c r="A185" s="14"/>
     </row>
     <row r="186">
-      <c r="A186" s="9"/>
+      <c r="A186" s="14"/>
     </row>
     <row r="187">
-      <c r="A187" s="9"/>
+      <c r="A187" s="14"/>
     </row>
     <row r="188">
-      <c r="A188" s="9"/>
+      <c r="A188" s="14"/>
     </row>
     <row r="189">
-      <c r="A189" s="9"/>
+      <c r="A189" s="14"/>
     </row>
     <row r="190">
-      <c r="A190" s="9"/>
+      <c r="A190" s="14"/>
     </row>
     <row r="191">
-      <c r="A191" s="9"/>
+      <c r="A191" s="14"/>
     </row>
     <row r="192">
-      <c r="A192" s="9"/>
+      <c r="A192" s="14"/>
     </row>
     <row r="193">
-      <c r="A193" s="9"/>
+      <c r="A193" s="14"/>
     </row>
     <row r="194">
-      <c r="A194" s="9"/>
+      <c r="A194" s="14"/>
     </row>
     <row r="195">
-      <c r="A195" s="9"/>
+      <c r="A195" s="14"/>
     </row>
     <row r="196">
-      <c r="A196" s="9"/>
+      <c r="A196" s="14"/>
     </row>
     <row r="197">
-      <c r="A197" s="9"/>
+      <c r="A197" s="14"/>
     </row>
     <row r="198">
-      <c r="A198" s="9"/>
+      <c r="A198" s="14"/>
     </row>
     <row r="199">
-      <c r="A199" s="9"/>
+      <c r="A199" s="14"/>
     </row>
     <row r="200">
-      <c r="A200" s="9"/>
+      <c r="A200" s="14"/>
     </row>
     <row r="201">
-      <c r="A201" s="9"/>
+      <c r="A201" s="14"/>
     </row>
     <row r="202">
-      <c r="A202" s="9"/>
+      <c r="A202" s="14"/>
     </row>
     <row r="203">
-      <c r="A203" s="9"/>
+      <c r="A203" s="14"/>
     </row>
     <row r="204">
-      <c r="A204" s="9"/>
+      <c r="A204" s="14"/>
     </row>
     <row r="205">
-      <c r="A205" s="9"/>
+      <c r="A205" s="14"/>
     </row>
     <row r="206">
-      <c r="A206" s="9"/>
+      <c r="A206" s="14"/>
     </row>
     <row r="207">
-      <c r="A207" s="9"/>
+      <c r="A207" s="14"/>
     </row>
     <row r="208">
-      <c r="A208" s="9"/>
+      <c r="A208" s="14"/>
     </row>
     <row r="209">
-      <c r="A209" s="9"/>
+      <c r="A209" s="14"/>
     </row>
     <row r="210">
-      <c r="A210" s="9"/>
+      <c r="A210" s="14"/>
     </row>
     <row r="211">
-      <c r="A211" s="9"/>
+      <c r="A211" s="14"/>
     </row>
     <row r="212">
-      <c r="A212" s="9"/>
+      <c r="A212" s="14"/>
     </row>
     <row r="213">
-      <c r="A213" s="9"/>
+      <c r="A213" s="14"/>
     </row>
     <row r="214">
-      <c r="A214" s="9"/>
+      <c r="A214" s="14"/>
     </row>
     <row r="215">
-      <c r="A215" s="9"/>
+      <c r="A215" s="14"/>
     </row>
     <row r="216">
-      <c r="A216" s="9"/>
+      <c r="A216" s="14"/>
     </row>
     <row r="217">
-      <c r="A217" s="9"/>
+      <c r="A217" s="14"/>
     </row>
     <row r="218">
-      <c r="A218" s="9"/>
+      <c r="A218" s="14"/>
     </row>
     <row r="219">
-      <c r="A219" s="9"/>
+      <c r="A219" s="14"/>
     </row>
     <row r="220">
-      <c r="A220" s="9"/>
+      <c r="A220" s="14"/>
     </row>
     <row r="221">
-      <c r="A221" s="9"/>
+      <c r="A221" s="14"/>
     </row>
     <row r="222">
-      <c r="A222" s="9"/>
+      <c r="A222" s="14"/>
     </row>
     <row r="223">
-      <c r="A223" s="9"/>
+      <c r="A223" s="14"/>
     </row>
     <row r="224">
-      <c r="A224" s="9"/>
+      <c r="A224" s="14"/>
     </row>
     <row r="225">
-      <c r="A225" s="9"/>
+      <c r="A225" s="14"/>
     </row>
     <row r="226">
-      <c r="A226" s="9"/>
+      <c r="A226" s="14"/>
     </row>
     <row r="227">
-      <c r="A227" s="9"/>
+      <c r="A227" s="14"/>
     </row>
     <row r="228">
-      <c r="A228" s="9"/>
+      <c r="A228" s="14"/>
     </row>
     <row r="229">
-      <c r="A229" s="9"/>
+      <c r="A229" s="14"/>
     </row>
     <row r="230">
-      <c r="A230" s="9"/>
+      <c r="A230" s="14"/>
     </row>
     <row r="231">
-      <c r="A231" s="9"/>
+      <c r="A231" s="14"/>
     </row>
     <row r="232">
-      <c r="A232" s="9"/>
+      <c r="A232" s="14"/>
     </row>
     <row r="233">
-      <c r="A233" s="9"/>
+      <c r="A233" s="14"/>
     </row>
     <row r="234">
-      <c r="A234" s="9"/>
+      <c r="A234" s="14"/>
     </row>
     <row r="235">
-      <c r="A235" s="9"/>
+      <c r="A235" s="14"/>
     </row>
     <row r="236">
-      <c r="A236" s="9"/>
+      <c r="A236" s="14"/>
     </row>
     <row r="237">
-      <c r="A237" s="9"/>
+      <c r="A237" s="14"/>
     </row>
     <row r="238">
-      <c r="A238" s="9"/>
+      <c r="A238" s="14"/>
     </row>
     <row r="239">
-      <c r="A239" s="9"/>
+      <c r="A239" s="14"/>
     </row>
     <row r="240">
-      <c r="A240" s="9"/>
+      <c r="A240" s="14"/>
     </row>
     <row r="241">
-      <c r="A241" s="9"/>
+      <c r="A241" s="14"/>
     </row>
     <row r="242">
-      <c r="A242" s="9"/>
+      <c r="A242" s="14"/>
     </row>
     <row r="243">
-      <c r="A243" s="9"/>
+      <c r="A243" s="14"/>
     </row>
     <row r="244">
-      <c r="A244" s="9"/>
+      <c r="A244" s="14"/>
     </row>
     <row r="245">
-      <c r="A245" s="9"/>
+      <c r="A245" s="14"/>
     </row>
     <row r="246">
-      <c r="A246" s="9"/>
+      <c r="A246" s="14"/>
     </row>
     <row r="247">
-      <c r="A247" s="9"/>
+      <c r="A247" s="14"/>
     </row>
     <row r="248">
-      <c r="A248" s="9"/>
+      <c r="A248" s="14"/>
     </row>
     <row r="249">
-      <c r="A249" s="9"/>
+      <c r="A249" s="14"/>
     </row>
     <row r="250">
-      <c r="A250" s="9"/>
+      <c r="A250" s="14"/>
     </row>
     <row r="251">
-      <c r="A251" s="9"/>
+      <c r="A251" s="14"/>
     </row>
     <row r="252">
-      <c r="A252" s="9"/>
+      <c r="A252" s="14"/>
     </row>
     <row r="253">
-      <c r="A253" s="9"/>
+      <c r="A253" s="14"/>
     </row>
     <row r="254">
-      <c r="A254" s="9"/>
+      <c r="A254" s="14"/>
     </row>
     <row r="255">
-      <c r="A255" s="9"/>
+      <c r="A255" s="14"/>
     </row>
     <row r="256">
-      <c r="A256" s="9"/>
+      <c r="A256" s="14"/>
     </row>
     <row r="257">
-      <c r="A257" s="9"/>
+      <c r="A257" s="14"/>
     </row>
     <row r="258">
-      <c r="A258" s="9"/>
+      <c r="A258" s="14"/>
     </row>
     <row r="259">
-      <c r="A259" s="9"/>
+      <c r="A259" s="14"/>
     </row>
     <row r="260">
-      <c r="A260" s="9"/>
+      <c r="A260" s="14"/>
     </row>
     <row r="261">
-      <c r="A261" s="9"/>
+      <c r="A261" s="14"/>
     </row>
     <row r="262">
-      <c r="A262" s="9"/>
+      <c r="A262" s="14"/>
     </row>
     <row r="263">
-      <c r="A263" s="9"/>
+      <c r="A263" s="14"/>
     </row>
     <row r="264">
-      <c r="A264" s="9"/>
+      <c r="A264" s="14"/>
     </row>
     <row r="265">
-      <c r="A265" s="9"/>
+      <c r="A265" s="14"/>
     </row>
     <row r="266">
-      <c r="A266" s="9"/>
+      <c r="A266" s="14"/>
     </row>
     <row r="267">
-      <c r="A267" s="9"/>
+      <c r="A267" s="14"/>
     </row>
     <row r="268">
-      <c r="A268" s="9"/>
+      <c r="A268" s="14"/>
     </row>
     <row r="269">
-      <c r="A269" s="9"/>
+      <c r="A269" s="14"/>
     </row>
     <row r="270">
-      <c r="A270" s="9"/>
+      <c r="A270" s="14"/>
     </row>
     <row r="271">
-      <c r="A271" s="9"/>
+      <c r="A271" s="14"/>
     </row>
     <row r="272">
-      <c r="A272" s="9"/>
+      <c r="A272" s="14"/>
     </row>
     <row r="273">
-      <c r="A273" s="9"/>
+      <c r="A273" s="14"/>
     </row>
     <row r="274">
-      <c r="A274" s="9"/>
+      <c r="A274" s="14"/>
     </row>
     <row r="275">
-      <c r="A275" s="9"/>
+      <c r="A275" s="14"/>
     </row>
     <row r="276">
-      <c r="A276" s="9"/>
+      <c r="A276" s="14"/>
     </row>
     <row r="277">
-      <c r="A277" s="9"/>
+      <c r="A277" s="14"/>
     </row>
     <row r="278">
-      <c r="A278" s="9"/>
+      <c r="A278" s="14"/>
     </row>
     <row r="279">
-      <c r="A279" s="9"/>
+      <c r="A279" s="14"/>
     </row>
     <row r="280">
-      <c r="A280" s="9"/>
+      <c r="A280" s="14"/>
     </row>
     <row r="281">
-      <c r="A281" s="9"/>
+      <c r="A281" s="14"/>
     </row>
     <row r="282">
-      <c r="A282" s="9"/>
+      <c r="A282" s="14"/>
     </row>
     <row r="283">
-      <c r="A283" s="9"/>
+      <c r="A283" s="14"/>
     </row>
     <row r="284">
-      <c r="A284" s="9"/>
+      <c r="A284" s="14"/>
     </row>
     <row r="285">
-      <c r="A285" s="9"/>
+      <c r="A285" s="14"/>
     </row>
     <row r="286">
-      <c r="A286" s="9"/>
+      <c r="A286" s="14"/>
     </row>
     <row r="287">
-      <c r="A287" s="9"/>
+      <c r="A287" s="14"/>
     </row>
     <row r="288">
-      <c r="A288" s="9"/>
+      <c r="A288" s="14"/>
     </row>
     <row r="289">
-      <c r="A289" s="9"/>
+      <c r="A289" s="14"/>
     </row>
     <row r="290">
-      <c r="A290" s="9"/>
+      <c r="A290" s="14"/>
     </row>
     <row r="291">
-      <c r="A291" s="9"/>
+      <c r="A291" s="14"/>
     </row>
     <row r="292">
-      <c r="A292" s="9"/>
+      <c r="A292" s="14"/>
     </row>
     <row r="293">
-      <c r="A293" s="9"/>
+      <c r="A293" s="14"/>
     </row>
     <row r="294">
-      <c r="A294" s="9"/>
+      <c r="A294" s="14"/>
     </row>
     <row r="295">
-      <c r="A295" s="9"/>
+      <c r="A295" s="14"/>
     </row>
     <row r="296">
-      <c r="A296" s="9"/>
+      <c r="A296" s="14"/>
     </row>
     <row r="297">
-      <c r="A297" s="9"/>
+      <c r="A297" s="14"/>
     </row>
     <row r="298">
-      <c r="A298" s="9"/>
+      <c r="A298" s="14"/>
     </row>
     <row r="299">
-      <c r="A299" s="9"/>
+      <c r="A299" s="14"/>
     </row>
     <row r="300">
-      <c r="A300" s="9"/>
+      <c r="A300" s="14"/>
     </row>
     <row r="301">
-      <c r="A301" s="9"/>
+      <c r="A301" s="14"/>
     </row>
     <row r="302">
-      <c r="A302" s="9"/>
+      <c r="A302" s="14"/>
     </row>
     <row r="303">
-      <c r="A303" s="9"/>
+      <c r="A303" s="14"/>
     </row>
     <row r="304">
-      <c r="A304" s="9"/>
+      <c r="A304" s="14"/>
     </row>
     <row r="305">
-      <c r="A305" s="9"/>
+      <c r="A305" s="14"/>
     </row>
     <row r="306">
-      <c r="A306" s="9"/>
+      <c r="A306" s="14"/>
     </row>
     <row r="307">
-      <c r="A307" s="9"/>
+      <c r="A307" s="14"/>
     </row>
     <row r="308">
-      <c r="A308" s="9"/>
+      <c r="A308" s="14"/>
     </row>
     <row r="309">
-      <c r="A309" s="9"/>
+      <c r="A309" s="14"/>
     </row>
     <row r="310">
-      <c r="A310" s="9"/>
+      <c r="A310" s="14"/>
     </row>
     <row r="311">
-      <c r="A311" s="9"/>
+      <c r="A311" s="14"/>
     </row>
     <row r="312">
-      <c r="A312" s="9"/>
+      <c r="A312" s="14"/>
     </row>
     <row r="313">
-      <c r="A313" s="9"/>
+      <c r="A313" s="14"/>
     </row>
     <row r="314">
-      <c r="A314" s="9"/>
+      <c r="A314" s="14"/>
     </row>
     <row r="315">
-      <c r="A315" s="9"/>
+      <c r="A315" s="14"/>
     </row>
     <row r="316">
-      <c r="A316" s="9"/>
+      <c r="A316" s="14"/>
     </row>
     <row r="317">
-      <c r="A317" s="9"/>
+      <c r="A317" s="14"/>
     </row>
     <row r="318">
-      <c r="A318" s="9"/>
+      <c r="A318" s="14"/>
     </row>
     <row r="319">
-      <c r="A319" s="9"/>
+      <c r="A319" s="14"/>
     </row>
     <row r="320">
-      <c r="A320" s="9"/>
+      <c r="A320" s="14"/>
     </row>
     <row r="321">
-      <c r="A321" s="9"/>
+      <c r="A321" s="14"/>
     </row>
     <row r="322">
-      <c r="A322" s="9"/>
+      <c r="A322" s="14"/>
     </row>
     <row r="323">
-      <c r="A323" s="9"/>
+      <c r="A323" s="14"/>
     </row>
     <row r="324">
-      <c r="A324" s="9"/>
+      <c r="A324" s="14"/>
     </row>
     <row r="325">
-      <c r="A325" s="9"/>
+      <c r="A325" s="14"/>
     </row>
     <row r="326">
-      <c r="A326" s="9"/>
+      <c r="A326" s="14"/>
     </row>
     <row r="327">
-      <c r="A327" s="9"/>
+      <c r="A327" s="14"/>
     </row>
     <row r="328">
-      <c r="A328" s="9"/>
+      <c r="A328" s="14"/>
     </row>
     <row r="329">
-      <c r="A329" s="9"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="9"/>
+      <c r="A329" s="14"/>
     </row>
     <row r="331">
-      <c r="A331" s="9"/>
+      <c r="A331" s="14"/>
     </row>
     <row r="332">
-      <c r="A332" s="9"/>
+      <c r="A332" s="14"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="14"/>
     </row>
     <row r="334">
-      <c r="A334" s="9"/>
+      <c r="A334" s="14"/>
     </row>
     <row r="335">
-      <c r="A335" s="9"/>
+      <c r="A335" s="14"/>
     </row>
     <row r="336">
-      <c r="A336" s="9"/>
+      <c r="A336" s="14"/>
     </row>
     <row r="337">
-      <c r="A337" s="9"/>
+      <c r="A337" s="14"/>
     </row>
     <row r="338">
-      <c r="A338" s="9"/>
+      <c r="A338" s="14"/>
     </row>
     <row r="339">
-      <c r="A339" s="9"/>
+      <c r="A339" s="14"/>
     </row>
     <row r="340">
-      <c r="A340" s="9"/>
+      <c r="A340" s="14"/>
     </row>
     <row r="341">
-      <c r="A341" s="9"/>
+      <c r="A341" s="14"/>
     </row>
     <row r="342">
-      <c r="A342" s="9"/>
+      <c r="A342" s="14"/>
     </row>
     <row r="343">
-      <c r="A343" s="9"/>
+      <c r="A343" s="14"/>
     </row>
     <row r="344">
-      <c r="A344" s="9"/>
+      <c r="A344" s="14"/>
     </row>
     <row r="345">
-      <c r="A345" s="9"/>
+      <c r="A345" s="14"/>
     </row>
     <row r="346">
-      <c r="A346" s="9"/>
+      <c r="A346" s="14"/>
     </row>
     <row r="347">
-      <c r="A347" s="9"/>
+      <c r="A347" s="14"/>
     </row>
     <row r="348">
-      <c r="A348" s="9"/>
+      <c r="A348" s="14"/>
     </row>
     <row r="349">
-      <c r="A349" s="9"/>
+      <c r="A349" s="14"/>
     </row>
     <row r="350">
-      <c r="A350" s="9"/>
+      <c r="A350" s="14"/>
     </row>
     <row r="351">
-      <c r="A351" s="9"/>
+      <c r="A351" s="14"/>
     </row>
     <row r="352">
-      <c r="A352" s="9"/>
+      <c r="A352" s="14"/>
     </row>
     <row r="353">
-      <c r="A353" s="9"/>
+      <c r="A353" s="14"/>
     </row>
     <row r="354">
-      <c r="A354" s="9"/>
+      <c r="A354" s="14"/>
     </row>
     <row r="355">
-      <c r="A355" s="9"/>
+      <c r="A355" s="14"/>
     </row>
     <row r="356">
-      <c r="A356" s="9"/>
+      <c r="A356" s="14"/>
     </row>
     <row r="357">
-      <c r="A357" s="9"/>
+      <c r="A357" s="14"/>
     </row>
     <row r="358">
-      <c r="A358" s="9"/>
+      <c r="A358" s="14"/>
     </row>
     <row r="359">
-      <c r="A359" s="9"/>
+      <c r="A359" s="14"/>
     </row>
     <row r="360">
-      <c r="A360" s="9"/>
+      <c r="A360" s="14"/>
     </row>
     <row r="361">
-      <c r="A361" s="9"/>
+      <c r="A361" s="14"/>
     </row>
     <row r="362">
-      <c r="A362" s="9"/>
+      <c r="A362" s="14"/>
     </row>
     <row r="363">
-      <c r="A363" s="9"/>
+      <c r="A363" s="14"/>
     </row>
     <row r="364">
-      <c r="A364" s="9"/>
+      <c r="A364" s="14"/>
     </row>
     <row r="365">
-      <c r="A365" s="9"/>
+      <c r="A365" s="14"/>
     </row>
     <row r="366">
-      <c r="A366" s="9"/>
+      <c r="A366" s="14"/>
     </row>
     <row r="367">
-      <c r="A367" s="9"/>
+      <c r="A367" s="14"/>
     </row>
     <row r="368">
-      <c r="A368" s="9"/>
+      <c r="A368" s="14"/>
     </row>
     <row r="369">
-      <c r="A369" s="9"/>
+      <c r="A369" s="14"/>
     </row>
     <row r="370">
-      <c r="A370" s="9"/>
+      <c r="A370" s="14"/>
     </row>
     <row r="371">
-      <c r="A371" s="9"/>
+      <c r="A371" s="14"/>
     </row>
     <row r="372">
-      <c r="A372" s="9"/>
+      <c r="A372" s="14"/>
     </row>
     <row r="373">
-      <c r="A373" s="9"/>
+      <c r="A373" s="14"/>
     </row>
     <row r="374">
-      <c r="A374" s="9"/>
+      <c r="A374" s="14"/>
     </row>
     <row r="375">
-      <c r="A375" s="9"/>
+      <c r="A375" s="14"/>
     </row>
     <row r="376">
-      <c r="A376" s="9"/>
+      <c r="A376" s="14"/>
     </row>
     <row r="377">
-      <c r="A377" s="9"/>
+      <c r="A377" s="14"/>
     </row>
     <row r="378">
-      <c r="A378" s="9"/>
+      <c r="A378" s="14"/>
     </row>
     <row r="379">
-      <c r="A379" s="9"/>
+      <c r="A379" s="14"/>
     </row>
     <row r="380">
-      <c r="A380" s="9"/>
+      <c r="A380" s="14"/>
     </row>
     <row r="381">
-      <c r="A381" s="9"/>
+      <c r="A381" s="14"/>
     </row>
     <row r="382">
-      <c r="A382" s="9"/>
+      <c r="A382" s="14"/>
     </row>
     <row r="383">
-      <c r="A383" s="9"/>
+      <c r="A383" s="14"/>
     </row>
     <row r="384">
-      <c r="A384" s="9"/>
+      <c r="A384" s="14"/>
     </row>
     <row r="385">
-      <c r="A385" s="9"/>
+      <c r="A385" s="14"/>
     </row>
     <row r="386">
-      <c r="A386" s="9"/>
+      <c r="A386" s="14"/>
     </row>
     <row r="387">
-      <c r="A387" s="9"/>
+      <c r="A387" s="14"/>
     </row>
     <row r="388">
-      <c r="A388" s="9"/>
+      <c r="A388" s="14"/>
     </row>
     <row r="389">
-      <c r="A389" s="9"/>
+      <c r="A389" s="14"/>
     </row>
     <row r="390">
-      <c r="A390" s="9"/>
+      <c r="A390" s="14"/>
     </row>
     <row r="391">
-      <c r="A391" s="9"/>
+      <c r="A391" s="14"/>
     </row>
     <row r="392">
-      <c r="A392" s="9"/>
+      <c r="A392" s="14"/>
     </row>
     <row r="393">
-      <c r="A393" s="9"/>
+      <c r="A393" s="14"/>
     </row>
     <row r="394">
-      <c r="A394" s="9"/>
+      <c r="A394" s="14"/>
     </row>
     <row r="395">
-      <c r="A395" s="9"/>
+      <c r="A395" s="14"/>
     </row>
     <row r="396">
-      <c r="A396" s="9"/>
+      <c r="A396" s="14"/>
     </row>
     <row r="397">
-      <c r="A397" s="9"/>
+      <c r="A397" s="14"/>
     </row>
     <row r="398">
-      <c r="A398" s="9"/>
+      <c r="A398" s="14"/>
     </row>
     <row r="399">
-      <c r="A399" s="9"/>
+      <c r="A399" s="14"/>
     </row>
     <row r="400">
-      <c r="A400" s="9"/>
+      <c r="A400" s="14"/>
     </row>
     <row r="401">
-      <c r="A401" s="9"/>
+      <c r="A401" s="14"/>
     </row>
     <row r="402">
-      <c r="A402" s="9"/>
+      <c r="A402" s="14"/>
     </row>
     <row r="403">
-      <c r="A403" s="9"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="9"/>
+      <c r="A403" s="14"/>
     </row>
     <row r="405">
-      <c r="A405" s="9"/>
+      <c r="A405" s="14"/>
     </row>
     <row r="406">
-      <c r="A406" s="9"/>
+      <c r="A406" s="14"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="14"/>
     </row>
     <row r="408">
-      <c r="A408" s="9"/>
+      <c r="A408" s="14"/>
     </row>
     <row r="409">
-      <c r="A409" s="9"/>
+      <c r="A409" s="14"/>
     </row>
     <row r="410">
-      <c r="A410" s="9"/>
+      <c r="A410" s="14"/>
     </row>
     <row r="411">
-      <c r="A411" s="9"/>
+      <c r="A411" s="14"/>
     </row>
     <row r="412">
-      <c r="A412" s="9"/>
+      <c r="A412" s="14"/>
     </row>
     <row r="413">
-      <c r="A413" s="9"/>
+      <c r="A413" s="14"/>
     </row>
     <row r="414">
-      <c r="A414" s="9"/>
+      <c r="A414" s="14"/>
     </row>
     <row r="415">
-      <c r="A415" s="9"/>
+      <c r="A415" s="14"/>
     </row>
     <row r="416">
-      <c r="A416" s="9"/>
+      <c r="A416" s="14"/>
     </row>
     <row r="417">
-      <c r="A417" s="9"/>
+      <c r="A417" s="14"/>
     </row>
     <row r="418">
-      <c r="A418" s="9"/>
+      <c r="A418" s="14"/>
     </row>
     <row r="419">
-      <c r="A419" s="9"/>
+      <c r="A419" s="14"/>
     </row>
     <row r="420">
-      <c r="A420" s="9"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="9"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="9"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="9"/>
+      <c r="A420" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
